--- a/Selenium/src/ExcelReading/TestData.xlsx
+++ b/Selenium/src/ExcelReading/TestData.xlsx
@@ -4,20 +4,70 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="13540" windowHeight="3010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Logins" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Ramachandra</t>
+  </si>
+  <si>
+    <t>ramureddy4555@gmail.com</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Anand</t>
+  </si>
+  <si>
+    <t>anand@gmail.com</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>vijay@gmail.com</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>963852741</t>
+  </si>
+  <si>
+    <t>321456987</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +75,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,14 +113,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -342,13 +437,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -358,7 +523,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -370,7 +535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
